--- a/output/Curran/date10032024/output.xlsx
+++ b/output/Curran/date10032024/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="130">
   <si>
     <t>data_key</t>
   </si>
@@ -338,7 +338,7 @@
     <t>{'n_consd': 1834, 'n_sim_descs': 19, 'n_small_groups': 495, 'n_redun_decs': None, 'n_redun_descs': None}</t>
   </si>
   <si>
-    <t>{'slopes': array([ 0.        ,  1.56553148, -0.0520093 ]), 'intercepts': -5.785255839882121, 'ssres': 1393.0340431447603, 'sstot': 3560.7419924528294, 'precision': 0.951161248729303, 'nrparams': 3, 'chorder': 2, 'bic': -87.91247098232316}</t>
+    <t>{'slopes': array([ 0.        ,  1.56553148, -0.0520093 ]), 'intercepts': -5.785255839882182, 'ssres': 1393.03404314476, 'sstot': 3560.7419924528294, 'precision': 0.9511612487293032, 'nrparams': 3}</t>
   </si>
   <si>
     <t>['kidgen']</t>
@@ -353,55 +353,58 @@
     <t>['id']</t>
   </si>
   <si>
-    <t>[-0.98, -0.96]</t>
-  </si>
-  <si>
-    <t>[-0.9, -0.86]</t>
-  </si>
-  <si>
-    <t>[-0.93, -0.87]</t>
-  </si>
-  <si>
-    <t>[0.11, 0.14]</t>
-  </si>
-  <si>
-    <t>[0.12, 0.14]</t>
-  </si>
-  <si>
-    <t>[61.04, 61.76]</t>
-  </si>
-  <si>
-    <t>[52.23, 41.1]</t>
-  </si>
-  <si>
-    <t>[54.4, 42.99]</t>
-  </si>
-  <si>
-    <t>[-0.95, -0.9]</t>
-  </si>
-  <si>
-    <t>[-0.9, -0.88]</t>
-  </si>
-  <si>
-    <t>[-0.93, -0.86]</t>
-  </si>
-  <si>
-    <t>[0.21, 0.24]</t>
-  </si>
-  <si>
-    <t>[0.22, 0.23]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.23]</t>
-  </si>
-  <si>
-    <t>[63.92, 69.23]</t>
-  </si>
-  <si>
-    <t>[67.57, 49.19]</t>
-  </si>
-  <si>
-    <t>[72.87, 85.87]</t>
+    <t>[-0.92, -0.89]</t>
+  </si>
+  <si>
+    <t>[-0.94, -0.95]</t>
+  </si>
+  <si>
+    <t>[-1.0, -0.98]</t>
+  </si>
+  <si>
+    <t>[0.09, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.13, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.14, 0.07]</t>
+  </si>
+  <si>
+    <t>[44.49, 47.98]</t>
+  </si>
+  <si>
+    <t>[50.02, 61.75]</t>
+  </si>
+  <si>
+    <t>[31.8, 36.71]</t>
+  </si>
+  <si>
+    <t>[-0.9, -0.96]</t>
+  </si>
+  <si>
+    <t>[-0.89, -0.89]</t>
+  </si>
+  <si>
+    <t>[-1.0, -0.95]</t>
+  </si>
+  <si>
+    <t>[0.21, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.23, 0.19]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.13]</t>
+  </si>
+  <si>
+    <t>[67.11, 52.76]</t>
+  </si>
+  <si>
+    <t>[84.47, 65.75]</t>
+  </si>
+  <si>
+    <t>[63.06, 60.86]</t>
   </si>
 </sst>
 </file>
@@ -1069,34 +1072,34 @@
         <v>7</v>
       </c>
       <c r="AT2">
-        <v>0.2368310292561849</v>
+        <v>0.514159627755483</v>
       </c>
       <c r="AU2">
         <v>2</v>
       </c>
       <c r="AV2">
-        <v>-0.97</v>
+        <v>-0.905</v>
       </c>
       <c r="AW2">
-        <v>0.01000000000000001</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="AX2">
-        <v>-0.95355</v>
+        <v>-0.880325</v>
       </c>
       <c r="AY2">
-        <v>-0.9503999999999999</v>
+        <v>-0.8756</v>
       </c>
       <c r="AZ2">
-        <v>-0.9441999999999999</v>
+        <v>-0.8663</v>
       </c>
       <c r="BA2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1230,40 +1233,40 @@
         <v>1.8125</v>
       </c>
       <c r="AR3">
-        <v>1.237068965517241</v>
+        <v>1.237068965517242</v>
       </c>
       <c r="AS3">
         <v>7</v>
       </c>
       <c r="AT3">
-        <v>0.2356839378674825</v>
+        <v>0.4903882503509521</v>
       </c>
       <c r="AU3">
         <v>2</v>
       </c>
       <c r="AV3">
-        <v>-0.88</v>
+        <v>-0.945</v>
       </c>
       <c r="AW3">
-        <v>0.02000000000000002</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="AX3">
-        <v>-0.8471</v>
+        <v>-0.9367749999999999</v>
       </c>
       <c r="AY3">
-        <v>-0.8408</v>
+        <v>-0.9351999999999999</v>
       </c>
       <c r="AZ3">
-        <v>-0.8283999999999999</v>
+        <v>-0.9320999999999999</v>
       </c>
       <c r="BA3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1397,40 +1400,40 @@
         <v>1.8125</v>
       </c>
       <c r="AR4">
-        <v>1.112068965517242</v>
+        <v>1.112068965517241</v>
       </c>
       <c r="AS4">
         <v>8</v>
       </c>
       <c r="AT4">
-        <v>0.2613459746042887</v>
+        <v>0.510549000898997</v>
       </c>
       <c r="AU4">
         <v>2</v>
       </c>
       <c r="AV4">
-        <v>-0.9</v>
+        <v>-0.99</v>
       </c>
       <c r="AW4">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="AX4">
-        <v>-0.85065</v>
+        <v>-0.97355</v>
       </c>
       <c r="AY4">
-        <v>-0.8411999999999999</v>
+        <v>-0.9703999999999999</v>
       </c>
       <c r="AZ4">
-        <v>-0.8226</v>
+        <v>-0.9641999999999999</v>
       </c>
       <c r="BA4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BC4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1564,40 +1567,40 @@
         <v>1.8125</v>
       </c>
       <c r="AR5">
-        <v>0.6422413793103448</v>
+        <v>0.6422413793103449</v>
       </c>
       <c r="AS5">
         <v>14</v>
       </c>
       <c r="AT5">
-        <v>0.2179205258687337</v>
+        <v>0.3692015806833903</v>
       </c>
       <c r="AU5">
         <v>2</v>
       </c>
       <c r="AV5">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="AW5">
-        <v>0.01500000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="AX5">
-        <v>0.149675</v>
+        <v>0.16935</v>
       </c>
       <c r="AY5">
-        <v>0.1544</v>
+        <v>0.1788</v>
       </c>
       <c r="AZ5">
-        <v>0.1637</v>
+        <v>0.1974</v>
       </c>
       <c r="BA5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB5">
         <v>9</v>
       </c>
       <c r="BC5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1737,34 +1740,34 @@
         <v>13</v>
       </c>
       <c r="AT6">
-        <v>0.2221821506818135</v>
+        <v>0.3675880908966064</v>
       </c>
       <c r="AU6">
         <v>2</v>
       </c>
       <c r="AV6">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AW6">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AX6">
-        <v>0.14645</v>
+        <v>0.13645</v>
       </c>
       <c r="AY6">
-        <v>0.1496</v>
+        <v>0.1396</v>
       </c>
       <c r="AZ6">
-        <v>0.1558</v>
+        <v>0.1458</v>
       </c>
       <c r="BA6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -1862,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="AF7">
-        <v>1.422222222222223</v>
+        <v>1.422222222222224</v>
       </c>
       <c r="AG7">
         <v>1.949926037732976</v>
@@ -1904,34 +1907,34 @@
         <v>11</v>
       </c>
       <c r="AT7">
-        <v>0.2114187916119893</v>
+        <v>0.3786131262779236</v>
       </c>
       <c r="AU7">
         <v>2</v>
       </c>
       <c r="AV7">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="AW7">
-        <v>0.01500000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="AX7">
-        <v>0.149675</v>
+        <v>0.162575</v>
       </c>
       <c r="AY7">
-        <v>0.1544</v>
+        <v>0.1736</v>
       </c>
       <c r="AZ7">
-        <v>0.1637</v>
+        <v>0.1953</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -2029,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="AF8">
-        <v>0.382696993207837</v>
+        <v>0.3826969932078365</v>
       </c>
       <c r="AG8">
         <v>4.404987280146079</v>
@@ -2065,40 +2068,40 @@
         <v>1.5</v>
       </c>
       <c r="AR8">
-        <v>0.6666666666666666</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AS8">
         <v>12</v>
       </c>
       <c r="AT8">
-        <v>0.5942134618759155</v>
+        <v>1.540588235855103</v>
       </c>
       <c r="AU8">
         <v>2</v>
       </c>
       <c r="AV8">
-        <v>61.4</v>
+        <v>46.235</v>
       </c>
       <c r="AW8">
-        <v>0.3599999999999994</v>
+        <v>1.744999999999997</v>
       </c>
       <c r="AX8">
-        <v>61.9922</v>
+        <v>49.10552499999999</v>
       </c>
       <c r="AY8">
-        <v>62.1056</v>
+        <v>49.65519999999999</v>
       </c>
       <c r="AZ8">
-        <v>62.32879999999999</v>
+        <v>50.73709999999999</v>
       </c>
       <c r="BA8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -2196,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="AF9">
-        <v>0.3562268756913456</v>
+        <v>0.3562268756913459</v>
       </c>
       <c r="AG9">
         <v>4.429720109257288</v>
@@ -2232,40 +2235,40 @@
         <v>1.625</v>
       </c>
       <c r="AR9">
-        <v>0.6923076923076924</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="AS9">
         <v>12</v>
       </c>
       <c r="AT9">
-        <v>0.5903963724772135</v>
+        <v>2.210784276326498</v>
       </c>
       <c r="AU9">
         <v>2</v>
       </c>
       <c r="AV9">
-        <v>46.665</v>
+        <v>55.88500000000001</v>
       </c>
       <c r="AW9">
-        <v>5.564999999999998</v>
+        <v>5.864999999999998</v>
       </c>
       <c r="AX9">
-        <v>55.819425</v>
+        <v>65.53292500000001</v>
       </c>
       <c r="AY9">
-        <v>57.57239999999999</v>
+        <v>67.38040000000001</v>
       </c>
       <c r="AZ9">
-        <v>61.02269999999999</v>
+        <v>71.0167</v>
       </c>
       <c r="BA9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC9">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -2405,34 +2408,34 @@
         <v>11</v>
       </c>
       <c r="AT10">
-        <v>0.563922894001007</v>
+        <v>1.270329244931539</v>
       </c>
       <c r="AU10">
         <v>2</v>
       </c>
       <c r="AV10">
-        <v>48.695</v>
+        <v>34.255</v>
       </c>
       <c r="AW10">
-        <v>5.704999999999998</v>
+        <v>2.455</v>
       </c>
       <c r="AX10">
-        <v>58.079725</v>
+        <v>38.293475</v>
       </c>
       <c r="AY10">
-        <v>59.8768</v>
+        <v>39.0668</v>
       </c>
       <c r="AZ10">
-        <v>63.4139</v>
+        <v>40.5889</v>
       </c>
       <c r="BA10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -2530,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="AF11">
-        <v>1.370007262164126</v>
+        <v>1.370007262164124</v>
       </c>
       <c r="AG11">
         <v>1.767034683322213</v>
@@ -2572,25 +2575,25 @@
         <v>8</v>
       </c>
       <c r="AT11">
-        <v>0.4975362698237101</v>
+        <v>1.15501647790273</v>
       </c>
       <c r="AU11">
         <v>2</v>
       </c>
       <c r="AV11">
-        <v>-0.925</v>
+        <v>-0.9299999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.02499999999999997</v>
+        <v>0.02999999999999997</v>
       </c>
       <c r="AX11">
-        <v>-0.8838750000000001</v>
+        <v>-0.8806499999999999</v>
       </c>
       <c r="AY11">
-        <v>-0.8760000000000001</v>
+        <v>-0.8712</v>
       </c>
       <c r="AZ11">
-        <v>-0.8605000000000002</v>
+        <v>-0.8526</v>
       </c>
       <c r="BA11">
         <v>10</v>
@@ -2739,7 +2742,7 @@
         <v>9</v>
       </c>
       <c r="AT12">
-        <v>0.5001760085423788</v>
+        <v>1.186055743694305</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -2748,16 +2751,16 @@
         <v>-0.89</v>
       </c>
       <c r="AW12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>-0.87355</v>
+        <v>-0.89</v>
       </c>
       <c r="AY12">
-        <v>-0.8704</v>
+        <v>-0.89</v>
       </c>
       <c r="AZ12">
-        <v>-0.8642</v>
+        <v>-0.89</v>
       </c>
       <c r="BA12">
         <v>10</v>
@@ -2864,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.414496515706362</v>
+        <v>1.414496515706361</v>
       </c>
       <c r="AG13">
         <v>1.562058028534583</v>
@@ -2906,34 +2909,34 @@
         <v>8</v>
       </c>
       <c r="AT13">
-        <v>0.5160328865051269</v>
+        <v>1.155193916956584</v>
       </c>
       <c r="AU13">
         <v>2</v>
       </c>
       <c r="AV13">
-        <v>-0.895</v>
+        <v>-0.975</v>
       </c>
       <c r="AW13">
-        <v>0.03500000000000003</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="AX13">
-        <v>-0.837425</v>
+        <v>-0.9338749999999999</v>
       </c>
       <c r="AY13">
-        <v>-0.8263999999999999</v>
+        <v>-0.9259999999999999</v>
       </c>
       <c r="AZ13">
-        <v>-0.8047</v>
+        <v>-0.9104999999999999</v>
       </c>
       <c r="BA13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:55">
@@ -3073,28 +3076,28 @@
         <v>13</v>
       </c>
       <c r="AT14">
-        <v>0.398660397529602</v>
+        <v>0.9886383374532064</v>
       </c>
       <c r="AU14">
         <v>2</v>
       </c>
       <c r="AV14">
-        <v>0.225</v>
+        <v>0.185</v>
       </c>
       <c r="AW14">
-        <v>0.015</v>
+        <v>0.02499999999999999</v>
       </c>
       <c r="AX14">
-        <v>0.249675</v>
+        <v>0.226125</v>
       </c>
       <c r="AY14">
-        <v>0.2544</v>
+        <v>0.234</v>
       </c>
       <c r="AZ14">
-        <v>0.2637</v>
+        <v>0.2495</v>
       </c>
       <c r="BA14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB14">
         <v>10</v>
@@ -3198,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="AF15">
-        <v>1.239506172839508</v>
+        <v>1.239506172839507</v>
       </c>
       <c r="AG15">
         <v>2.640117382738368</v>
@@ -3240,25 +3243,25 @@
         <v>14</v>
       </c>
       <c r="AT15">
-        <v>0.3921175559361776</v>
+        <v>0.8267170349756877</v>
       </c>
       <c r="AU15">
         <v>2</v>
       </c>
       <c r="AV15">
-        <v>0.225</v>
+        <v>0.21</v>
       </c>
       <c r="AW15">
-        <v>0.005000000000000004</v>
+        <v>0.02</v>
       </c>
       <c r="AX15">
-        <v>0.233225</v>
+        <v>0.2429</v>
       </c>
       <c r="AY15">
-        <v>0.2348</v>
+        <v>0.2492</v>
       </c>
       <c r="AZ15">
-        <v>0.2379</v>
+        <v>0.2616000000000001</v>
       </c>
       <c r="BA15">
         <v>10</v>
@@ -3365,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="AF16">
-        <v>1.496296296296298</v>
+        <v>1.496296296296299</v>
       </c>
       <c r="AG16">
         <v>1.843766229087725</v>
@@ -3401,31 +3404,31 @@
         <v>3.0625</v>
       </c>
       <c r="AR16">
-        <v>0.7193877551020409</v>
+        <v>0.7193877551020408</v>
       </c>
       <c r="AS16">
         <v>13</v>
       </c>
       <c r="AT16">
-        <v>0.3813891847928365</v>
+        <v>0.8032151420911153</v>
       </c>
       <c r="AU16">
         <v>2</v>
       </c>
       <c r="AV16">
-        <v>0.215</v>
+        <v>0.19</v>
       </c>
       <c r="AW16">
-        <v>0.015</v>
+        <v>0.06</v>
       </c>
       <c r="AX16">
-        <v>0.239675</v>
+        <v>0.2887</v>
       </c>
       <c r="AY16">
-        <v>0.2444</v>
+        <v>0.3076</v>
       </c>
       <c r="AZ16">
-        <v>0.2537</v>
+        <v>0.3448</v>
       </c>
       <c r="BA16">
         <v>10</v>
@@ -3532,7 +3535,7 @@
         <v>3</v>
       </c>
       <c r="AF17">
-        <v>0.5749680715197935</v>
+        <v>0.574968071519794</v>
       </c>
       <c r="AG17">
         <v>4.085025325938981</v>
@@ -3574,25 +3577,25 @@
         <v>13</v>
       </c>
       <c r="AT17">
-        <v>1.141128055254618</v>
+        <v>4.27787014245987</v>
       </c>
       <c r="AU17">
         <v>2</v>
       </c>
       <c r="AV17">
-        <v>66.575</v>
+        <v>59.935</v>
       </c>
       <c r="AW17">
-        <v>2.655000000000001</v>
+        <v>7.175000000000001</v>
       </c>
       <c r="AX17">
-        <v>70.942475</v>
+        <v>71.737875</v>
       </c>
       <c r="AY17">
-        <v>71.7788</v>
+        <v>73.998</v>
       </c>
       <c r="AZ17">
-        <v>73.42490000000001</v>
+        <v>78.4465</v>
       </c>
       <c r="BA17">
         <v>9</v>
@@ -3699,7 +3702,7 @@
         <v>3</v>
       </c>
       <c r="AF18">
-        <v>0.5470131908599746</v>
+        <v>0.5470131908599742</v>
       </c>
       <c r="AG18">
         <v>3.901040709710667</v>
@@ -3741,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="AT18">
-        <v>1.163786868254344</v>
+        <v>3.859122733275095</v>
       </c>
       <c r="AU18">
         <v>2</v>
       </c>
       <c r="AV18">
-        <v>58.38</v>
+        <v>75.11</v>
       </c>
       <c r="AW18">
-        <v>9.189999999999998</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="AX18">
-        <v>73.49754999999999</v>
+        <v>90.5072</v>
       </c>
       <c r="AY18">
-        <v>76.39239999999999</v>
+        <v>93.4556</v>
       </c>
       <c r="AZ18">
-        <v>82.09019999999998</v>
+        <v>99.25879999999999</v>
       </c>
       <c r="BA18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC18">
         <v>10</v>
@@ -3908,34 +3911,34 @@
         <v>11</v>
       </c>
       <c r="AT19">
-        <v>1.07995400428772</v>
+        <v>3.758336897691091</v>
       </c>
       <c r="AU19">
         <v>2</v>
       </c>
       <c r="AV19">
-        <v>79.37</v>
+        <v>61.96</v>
       </c>
       <c r="AW19">
-        <v>6.5</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="AX19">
-        <v>90.0625</v>
+        <v>63.7695</v>
       </c>
       <c r="AY19">
-        <v>92.11</v>
+        <v>64.116</v>
       </c>
       <c r="AZ19">
-        <v>96.14</v>
+        <v>64.798</v>
       </c>
       <c r="BA19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BC19">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4517,7 @@
         <v>111</v>
       </c>
       <c r="Z7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4594,7 +4597,7 @@
         <v>111</v>
       </c>
       <c r="Z8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4674,7 +4677,7 @@
         <v>111</v>
       </c>
       <c r="Z9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4754,7 +4757,7 @@
         <v>111</v>
       </c>
       <c r="Z10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4840,7 +4843,7 @@
         <v>111</v>
       </c>
       <c r="AB11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -4926,7 +4929,7 @@
         <v>111</v>
       </c>
       <c r="AB12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -5012,7 +5015,7 @@
         <v>111</v>
       </c>
       <c r="AB13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -5098,7 +5101,7 @@
         <v>111</v>
       </c>
       <c r="AB14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -5184,7 +5187,7 @@
         <v>111</v>
       </c>
       <c r="AB15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -5270,7 +5273,7 @@
         <v>111</v>
       </c>
       <c r="AB16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -5356,7 +5359,7 @@
         <v>111</v>
       </c>
       <c r="AB17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -5442,7 +5445,7 @@
         <v>111</v>
       </c>
       <c r="AB18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -5528,7 +5531,7 @@
         <v>111</v>
       </c>
       <c r="AB19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
